--- a/data/rec_count.xlsx
+++ b/data/rec_count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\GitHub\ICH_table_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E060F4AD-402D-4C9B-AAA1-803E198C3A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63D7AF5-5166-4DAD-B045-C4774FEA6D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5C1C0F27-9F98-46B3-A81E-940BB9C8721F}"/>
+    <workbookView xWindow="930" yWindow="3165" windowWidth="18195" windowHeight="10380" xr2:uid="{5C1C0F27-9F98-46B3-A81E-940BB9C8721F}"/>
   </bookViews>
   <sheets>
     <sheet name="CTRL" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>180720_017</t>
   </si>
@@ -235,13 +235,19 @@
       </rPr>
       <t>(1)</t>
     </r>
+  </si>
+  <si>
+    <t>180726_003</t>
+  </si>
+  <si>
+    <t>SE_FOR_OLGA_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,16 +265,40 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -276,12 +306,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,17 +652,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B91508-303C-475A-B02E-E8D2EDEEE7E3}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -639,7 +694,7 @@
         <v>-57.691506480675997</v>
       </c>
       <c r="D2">
-        <v>13.338245371993001</v>
+        <v>12.338245371993001</v>
       </c>
       <c r="E2">
         <v>9.4866059029278507</v>
@@ -659,7 +714,7 @@
         <v>-19.6593813738405</v>
       </c>
       <c r="D3">
-        <v>15.291741066715201</v>
+        <v>14.291741066715201</v>
       </c>
       <c r="E3">
         <v>11.415267952734901</v>
@@ -755,14 +810,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0975F109-FDB9-4AEB-8527-54923CE0C059}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
     <col min="5" max="5" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -784,102 +841,142 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>-13.253472146323899</v>
-      </c>
-      <c r="C2">
-        <v>-10.978978472467899</v>
-      </c>
-      <c r="D2">
-        <v>16.0329072338352</v>
-      </c>
-      <c r="E2">
-        <v>12.7536251319992</v>
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-91.776504828509303</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-56.210698163202999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>7.9227774039778902</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10.613816220982701</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>-86.821284938710306</v>
-      </c>
-      <c r="C3">
-        <v>-75.934855688568803</v>
-      </c>
-      <c r="D3">
-        <v>15.4384069053238</v>
-      </c>
-      <c r="E3">
-        <v>9.6352861507320799</v>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-13.253472146323899</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-10.978978472467899</v>
+      </c>
+      <c r="D3" s="5">
+        <v>16.0329072338352</v>
+      </c>
+      <c r="E3" s="5">
+        <v>12.7536251319992</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>-36.970279520585002</v>
-      </c>
-      <c r="C4">
-        <v>-31.829147384087399</v>
-      </c>
-      <c r="D4">
-        <v>11.991837441636999</v>
-      </c>
-      <c r="E4">
-        <v>9.6053060445887404</v>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-86.821284938710306</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-75.934855688568803</v>
+      </c>
+      <c r="D4" s="5">
+        <v>15.4384069053238</v>
+      </c>
+      <c r="E4" s="5">
+        <v>9.6352861507320799</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>-28.02</v>
-      </c>
-      <c r="C5">
-        <v>-39.122999999999998</v>
-      </c>
-      <c r="D5">
-        <v>15.9821024813674</v>
-      </c>
-      <c r="E5">
-        <v>10.6869770897266</v>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-36.970279520585002</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-31.829147384087399</v>
+      </c>
+      <c r="D5" s="5">
+        <v>11.991837441636999</v>
+      </c>
+      <c r="E5" s="5">
+        <v>9.6053060445887404</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-29.177388912710601</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-27.492438353921202</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.9170681871341397</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7.04502827512749</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-28.02</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-39.122999999999998</v>
+      </c>
+      <c r="D7" s="5">
+        <v>15.9821024813674</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10.6869770897266</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B8" s="1">
         <v>-19.2327996285842</v>
       </c>
-      <c r="C6">
+      <c r="C8" s="1">
         <v>-16.3435532469028</v>
       </c>
-      <c r="D6">
+      <c r="D8" s="5">
         <v>13.7695332503631</v>
       </c>
-      <c r="E6">
+      <c r="E8" s="5">
         <v>11.656764634112299</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/rec_count.xlsx
+++ b/data/rec_count.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\GitHub\ICH_table_analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python script\GitHub\Epilepsy_table_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63D7AF5-5166-4DAD-B045-C4774FEA6D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4519A2BF-10AD-41BD-8383-F728B80C9F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="3165" windowWidth="18195" windowHeight="10380" xr2:uid="{5C1C0F27-9F98-46B3-A81E-940BB9C8721F}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{5C1C0F27-9F98-46B3-A81E-940BB9C8721F}"/>
   </bookViews>
   <sheets>
     <sheet name="CTRL" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>180720_017</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>SE_FOR_OLGA_2</t>
+  </si>
+  <si>
+    <t>cell_num</t>
   </si>
 </sst>
 </file>
@@ -325,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -336,6 +339,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,157 +663,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B91508-303C-475A-B02E-E8D2EDEEE7E3}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>-90.914144544479896</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>-57.691506480675997</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>12.338245371993001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>9.4866059029278507</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>-34.242714014502198</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>-19.6593813738405</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>14.291741066715201</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>11.415267952734901</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>-77.306294824108804</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>-56.221680338754901</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>11.2110632899373</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>12.065621455693501</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>-30.638027682208001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>-18.826479893418</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>10.4726963916067</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>9.5534498782447201</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>-9.9600000000000009</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>-8.2799999999999994</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>8.8122298492072506</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>8.3713063832882604</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>-36.970279520585002</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>-31.829147384087399</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>8.7375550542979603</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>9.6064465121646805</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
+        <v>-91.776504828509303</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-56.210698163202999</v>
+      </c>
+      <c r="D8" s="9">
+        <v>7.9227774039778902</v>
+      </c>
+      <c r="E8" s="9">
+        <v>10.613816220982701</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>-13.253472146323899</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-10.978978472467899</v>
+      </c>
+      <c r="D9" s="10">
+        <v>16.0329072338352</v>
+      </c>
+      <c r="E9" s="10">
+        <v>12.7536251319992</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>-86.821284938710306</v>
+      </c>
+      <c r="C10" s="8">
+        <v>-75.934855688568803</v>
+      </c>
+      <c r="D10" s="10">
+        <v>15.4384069053238</v>
+      </c>
+      <c r="E10" s="10">
+        <v>9.6352861507320799</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>-36.970279520585002</v>
+      </c>
+      <c r="C11" s="8">
+        <v>-31.829147384087399</v>
+      </c>
+      <c r="D11" s="10">
+        <v>11.991837441636999</v>
+      </c>
+      <c r="E11" s="10">
+        <v>9.6053060445887404</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8">
+        <v>-29.177388912710601</v>
+      </c>
+      <c r="C12" s="8">
+        <v>-27.492438353921202</v>
+      </c>
+      <c r="D12" s="9">
+        <v>6.9170681871341397</v>
+      </c>
+      <c r="E12" s="9">
+        <v>7.04502827512749</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11">
+        <v>-28.02</v>
+      </c>
+      <c r="C13" s="11">
+        <v>-39.122999999999998</v>
+      </c>
+      <c r="D13" s="10">
+        <v>15.9821024813674</v>
+      </c>
+      <c r="E13" s="10">
+        <v>10.6869770897266</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7">
+        <v>-19.2327996285842</v>
+      </c>
+      <c r="C14" s="7">
+        <v>-16.3435532469028</v>
+      </c>
+      <c r="D14" s="10">
+        <v>13.7695332503631</v>
+      </c>
+      <c r="E14" s="10">
+        <v>11.656764634112299</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -813,17 +967,17 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -840,7 +994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -860,7 +1014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -880,7 +1034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -900,7 +1054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,7 +1074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -940,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -960,7 +1114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
